--- a/biology/Zoologie/Chouette_à_sourcils_jaunes/Chouette_à_sourcils_jaunes.xlsx
+++ b/biology/Zoologie/Chouette_à_sourcils_jaunes/Chouette_à_sourcils_jaunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_sourcils_jaunes</t>
+          <t>Chouette_à_sourcils_jaunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pulsatrix koeniswaldiana
 La Chouette à sourcils jaunes (Pulsatrix koeniswaldiana) est une espèce d'oiseaux de la famille des strigidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_sourcils_jaunes</t>
+          <t>Chouette_à_sourcils_jaunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pulsatrix koeniswaldiana a été initialement décrite en 1901 par Moisés Santiago Bertoni et Arnoldo de Winkelried Bertoni (d)[3] sous le protonyme de Syrnium koeniswaldianum[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pulsatrix koeniswaldiana a été initialement décrite en 1901 par Moisés Santiago Bertoni et Arnoldo de Winkelried Bertoni (d) sous le protonyme de Syrnium koeniswaldianum.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_sourcils_jaunes</t>
+          <t>Chouette_à_sourcils_jaunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, koeniswaldiana, lui a été donné en l'honneur de Gustavo Koeniswald[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, koeniswaldiana, lui a été donné en l'honneur de Gustavo Koeniswald.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chouette_%C3%A0_sourcils_jaunes</t>
+          <t>Chouette_à_sourcils_jaunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A. de Winkelried Bertoni, Aves nuevas del Paraguay. Continuación á Azara,  (publication), Inconnu, Asuncion, 1901</t>
         </is>
